--- a/data/pca/factorExposure/factorExposure_2015-12-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +720,97 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01422817918533226</v>
+        <v>0.01436761240479481</v>
       </c>
       <c r="C2">
-        <v>0.03236328966018733</v>
+        <v>-0.03403961905482829</v>
       </c>
       <c r="D2">
-        <v>0.09064611873669158</v>
+        <v>-0.1244677179360598</v>
       </c>
       <c r="E2">
-        <v>-0.05773823006501122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.06837982706946469</v>
+      </c>
+      <c r="F2">
+        <v>-0.0230680211854283</v>
+      </c>
+      <c r="G2">
+        <v>0.07429692323096473</v>
+      </c>
+      <c r="H2">
+        <v>0.09606588377761707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01768877812091919</v>
+        <v>0.01036528995752188</v>
       </c>
       <c r="C3">
-        <v>0.05536631628090502</v>
+        <v>-0.03753293525318858</v>
       </c>
       <c r="D3">
-        <v>0.1214267120368737</v>
+        <v>-0.07168623802137825</v>
       </c>
       <c r="E3">
-        <v>-0.08952085193943513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.04502204666806186</v>
+      </c>
+      <c r="F3">
+        <v>-0.03892215495806516</v>
+      </c>
+      <c r="G3">
+        <v>0.09505180275303012</v>
+      </c>
+      <c r="H3">
+        <v>0.004557815321330146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05198117454384212</v>
+        <v>0.05417098756709385</v>
       </c>
       <c r="C4">
-        <v>0.0393449344069446</v>
+        <v>-0.06341286013553363</v>
       </c>
       <c r="D4">
-        <v>0.1295782202028126</v>
+        <v>-0.1449870775028162</v>
       </c>
       <c r="E4">
-        <v>-0.05029812922294791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.05422648370327628</v>
+      </c>
+      <c r="F4">
+        <v>-0.01452038849543826</v>
+      </c>
+      <c r="G4">
+        <v>-0.04008384905469954</v>
+      </c>
+      <c r="H4">
+        <v>-0.01717230812325889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04417353654009267</v>
+        <v>0.04004697696227513</v>
       </c>
       <c r="C6">
-        <v>0.009892453115482565</v>
+        <v>-0.02813236848236635</v>
       </c>
       <c r="D6">
-        <v>0.1346942796796818</v>
+        <v>-0.1318351383884815</v>
       </c>
       <c r="E6">
-        <v>-0.04818840222908349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03027751853336097</v>
+      </c>
+      <c r="F6">
+        <v>-0.0131810970502706</v>
+      </c>
+      <c r="G6">
+        <v>0.01078707451509938</v>
+      </c>
+      <c r="H6">
+        <v>0.01665116938632002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01976753453293498</v>
+        <v>0.01380797748131903</v>
       </c>
       <c r="C7">
-        <v>0.01735922711834268</v>
+        <v>-0.03022815196146878</v>
       </c>
       <c r="D7">
-        <v>0.09595802364412043</v>
+        <v>-0.09258828268286481</v>
       </c>
       <c r="E7">
-        <v>-0.04592294549695993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.03091752060362598</v>
+      </c>
+      <c r="F7">
+        <v>-0.01710500176964167</v>
+      </c>
+      <c r="G7">
+        <v>0.00149813792419229</v>
+      </c>
+      <c r="H7">
+        <v>0.1146789161106919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009807906666576006</v>
+        <v>0.006168677026992915</v>
       </c>
       <c r="C8">
-        <v>0.03064184238243448</v>
+        <v>-0.0379723885570842</v>
       </c>
       <c r="D8">
-        <v>0.05574778117242583</v>
+        <v>-0.07191364873227431</v>
       </c>
       <c r="E8">
-        <v>-0.03308263887987889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0368021187757936</v>
+      </c>
+      <c r="F8">
+        <v>-0.03959222217573976</v>
+      </c>
+      <c r="G8">
+        <v>0.01597460636372218</v>
+      </c>
+      <c r="H8">
+        <v>0.04533482041199606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04277655845358445</v>
+        <v>0.04170852956286733</v>
       </c>
       <c r="C9">
-        <v>0.04155286392906547</v>
+        <v>-0.0598988051856725</v>
       </c>
       <c r="D9">
-        <v>0.113765653076766</v>
+        <v>-0.1220643493929162</v>
       </c>
       <c r="E9">
-        <v>-0.04262654003717202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.03755908392438549</v>
+      </c>
+      <c r="F9">
+        <v>0.0006913470297690935</v>
+      </c>
+      <c r="G9">
+        <v>-0.02758134063058596</v>
+      </c>
+      <c r="H9">
+        <v>0.01109884928400329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09580161143625264</v>
+        <v>0.1380632023455228</v>
       </c>
       <c r="C10">
-        <v>-0.1930189721138434</v>
+        <v>0.186653919249494</v>
       </c>
       <c r="D10">
-        <v>0.0018073469806336</v>
+        <v>-0.002219748220103278</v>
       </c>
       <c r="E10">
-        <v>-0.03149349583112637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.04494921750535051</v>
+      </c>
+      <c r="F10">
+        <v>-0.01982827349150595</v>
+      </c>
+      <c r="G10">
+        <v>-0.03563565427107784</v>
+      </c>
+      <c r="H10">
+        <v>0.0008164527245357166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03403521628530385</v>
+        <v>0.02771246169821698</v>
       </c>
       <c r="C11">
-        <v>0.04096978714260283</v>
+        <v>-0.044576665572147</v>
       </c>
       <c r="D11">
-        <v>0.05788669914598674</v>
+        <v>-0.05730922819844333</v>
       </c>
       <c r="E11">
-        <v>-0.005826965227606209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.004304232343393771</v>
+      </c>
+      <c r="F11">
+        <v>-0.00103502631650743</v>
+      </c>
+      <c r="G11">
+        <v>0.003315040483723024</v>
+      </c>
+      <c r="H11">
+        <v>0.04883243220693926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03914178612191264</v>
+        <v>0.03321845025058628</v>
       </c>
       <c r="C12">
-        <v>0.0417198142032283</v>
+        <v>-0.04606432353703519</v>
       </c>
       <c r="D12">
-        <v>0.06204469572399759</v>
+        <v>-0.05766380457436647</v>
       </c>
       <c r="E12">
-        <v>-0.01768721079045439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.003989041326747877</v>
+      </c>
+      <c r="F12">
+        <v>0.006893280800213699</v>
+      </c>
+      <c r="G12">
+        <v>0.003516398720652241</v>
+      </c>
+      <c r="H12">
+        <v>0.06227125712380434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01851121245982233</v>
+        <v>0.01831159828251043</v>
       </c>
       <c r="C13">
-        <v>0.03001578212974825</v>
+        <v>-0.03993953528900004</v>
       </c>
       <c r="D13">
-        <v>0.1283975635461219</v>
+        <v>-0.1451276891680123</v>
       </c>
       <c r="E13">
-        <v>-0.08064749111026553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04914635964341261</v>
+      </c>
+      <c r="F13">
+        <v>-0.03348067430598761</v>
+      </c>
+      <c r="G13">
+        <v>0.01295537853098185</v>
+      </c>
+      <c r="H13">
+        <v>0.103647439435248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01167634822260985</v>
+        <v>0.008369086885598238</v>
       </c>
       <c r="C14">
-        <v>0.02018468085526299</v>
+        <v>-0.0249827432398559</v>
       </c>
       <c r="D14">
-        <v>0.07955637403532693</v>
+        <v>-0.08482612902591385</v>
       </c>
       <c r="E14">
-        <v>-0.05559498256558151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.03579154157326915</v>
+      </c>
+      <c r="F14">
+        <v>0.01041524200310086</v>
+      </c>
+      <c r="G14">
+        <v>0.01718668356456977</v>
+      </c>
+      <c r="H14">
+        <v>0.1076005471571249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001902746061330562</v>
+        <v>0.001293457487144887</v>
       </c>
       <c r="C15">
-        <v>-0.0008354297259743346</v>
+        <v>-0.009953489909778533</v>
       </c>
       <c r="D15">
-        <v>0.001932005376202262</v>
+        <v>-0.03116475154405835</v>
       </c>
       <c r="E15">
-        <v>0.0007201333661345237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.006312934349778213</v>
+      </c>
+      <c r="F15">
+        <v>0.001772513271242083</v>
+      </c>
+      <c r="G15">
+        <v>0.01064635548330426</v>
+      </c>
+      <c r="H15">
+        <v>0.009957545852754804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03375994978164402</v>
+        <v>0.02810253983545172</v>
       </c>
       <c r="C16">
-        <v>0.04235826099937534</v>
+        <v>-0.04414180408124173</v>
       </c>
       <c r="D16">
-        <v>0.06767345809875128</v>
+        <v>-0.06041041762080312</v>
       </c>
       <c r="E16">
-        <v>-0.02700967890274867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.008476337267866726</v>
+      </c>
+      <c r="F16">
+        <v>0.00665248708063176</v>
+      </c>
+      <c r="G16">
+        <v>0.005073710296754249</v>
+      </c>
+      <c r="H16">
+        <v>0.06117324107689435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009667053345172524</v>
+        <v>0.006271090942969938</v>
       </c>
       <c r="C19">
-        <v>0.02689072362364311</v>
+        <v>-0.02116581749358798</v>
       </c>
       <c r="D19">
-        <v>0.1710981172887542</v>
+        <v>-0.1244689495505153</v>
       </c>
       <c r="E19">
-        <v>-0.115334000497536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06507980441653993</v>
+      </c>
+      <c r="F19">
+        <v>0.00913158445987344</v>
+      </c>
+      <c r="G19">
+        <v>0.02190674080492364</v>
+      </c>
+      <c r="H19">
+        <v>0.06729343873557764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02010926443304992</v>
+        <v>0.01581817968684195</v>
       </c>
       <c r="C20">
-        <v>0.02463248994284618</v>
+        <v>-0.03307701662036402</v>
       </c>
       <c r="D20">
-        <v>0.08992214097715245</v>
+        <v>-0.09877444509644177</v>
       </c>
       <c r="E20">
-        <v>-0.07319035101150054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05138865512416083</v>
+      </c>
+      <c r="F20">
+        <v>0.004808074523787816</v>
+      </c>
+      <c r="G20">
+        <v>0.00358107397749298</v>
+      </c>
+      <c r="H20">
+        <v>0.06081322571273769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01266140318317264</v>
+        <v>0.01414632630984666</v>
       </c>
       <c r="C21">
-        <v>0.02975825617210434</v>
+        <v>-0.03768600828509652</v>
       </c>
       <c r="D21">
-        <v>0.130262981631096</v>
+        <v>-0.1387210515606558</v>
       </c>
       <c r="E21">
-        <v>-0.09612556381196602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.08904238314600287</v>
+      </c>
+      <c r="F21">
+        <v>0.001095607816167305</v>
+      </c>
+      <c r="G21">
+        <v>-0.02030130817806779</v>
+      </c>
+      <c r="H21">
+        <v>0.1265755786650975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.008595713402077342</v>
+        <v>0.005690853895761955</v>
       </c>
       <c r="C22">
-        <v>0.03055322876585973</v>
+        <v>-0.04149574698384918</v>
       </c>
       <c r="D22">
-        <v>0.08544889951777991</v>
+        <v>-0.1420865657918831</v>
       </c>
       <c r="E22">
-        <v>0.0127089458080636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02845953957538039</v>
+      </c>
+      <c r="F22">
+        <v>-0.08405365293706735</v>
+      </c>
+      <c r="G22">
+        <v>0.06749348300158142</v>
+      </c>
+      <c r="H22">
+        <v>-0.05954130293153227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.008675644669895738</v>
+        <v>0.005795960495494595</v>
       </c>
       <c r="C23">
-        <v>0.03043041337312298</v>
+        <v>-0.0419659735534662</v>
       </c>
       <c r="D23">
-        <v>0.08473942080937745</v>
+        <v>-0.1415330374659378</v>
       </c>
       <c r="E23">
-        <v>0.01240511747665543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02873301424391483</v>
+      </c>
+      <c r="F23">
+        <v>-0.08401683776754139</v>
+      </c>
+      <c r="G23">
+        <v>0.06654452315689333</v>
+      </c>
+      <c r="H23">
+        <v>-0.05968254010073042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03405044370136166</v>
+        <v>0.03012694687414396</v>
       </c>
       <c r="C24">
-        <v>0.04772744092357079</v>
+        <v>-0.05654273448604937</v>
       </c>
       <c r="D24">
-        <v>0.06703116148284226</v>
+        <v>-0.06527401630595865</v>
       </c>
       <c r="E24">
-        <v>-0.02226025313550767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.01341953843574548</v>
+      </c>
+      <c r="F24">
+        <v>0.00515699091369331</v>
+      </c>
+      <c r="G24">
+        <v>-0.0032470161685596</v>
+      </c>
+      <c r="H24">
+        <v>0.07300568475419281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04025122371005404</v>
+        <v>0.03462963422497936</v>
       </c>
       <c r="C25">
-        <v>0.04971699925053251</v>
+        <v>-0.05385287802041021</v>
       </c>
       <c r="D25">
-        <v>0.06658688471555575</v>
+        <v>-0.06178832150045258</v>
       </c>
       <c r="E25">
-        <v>-0.02475414558794191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01326101975970335</v>
+      </c>
+      <c r="F25">
+        <v>-0.0001244847178428724</v>
+      </c>
+      <c r="G25">
+        <v>-0.004853942435434665</v>
+      </c>
+      <c r="H25">
+        <v>0.05622731451399524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02104396791409947</v>
+        <v>0.01784724606552147</v>
       </c>
       <c r="C26">
-        <v>0.009637829554868348</v>
+        <v>-0.01830992553751485</v>
       </c>
       <c r="D26">
-        <v>0.05344957415595086</v>
+        <v>-0.06209704629975596</v>
       </c>
       <c r="E26">
-        <v>-0.03639004612074725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02636297709460005</v>
+      </c>
+      <c r="F26">
+        <v>-0.002099056727925443</v>
+      </c>
+      <c r="G26">
+        <v>0.009241907417798895</v>
+      </c>
+      <c r="H26">
+        <v>0.06568383054968709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1448161353219686</v>
+        <v>0.1978417427292912</v>
       </c>
       <c r="C28">
-        <v>-0.2716736435299202</v>
+        <v>0.2509546118280816</v>
       </c>
       <c r="D28">
-        <v>-0.02865358393592665</v>
+        <v>0.01232121497503282</v>
       </c>
       <c r="E28">
-        <v>-0.06739411268542485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.07095959133191306</v>
+      </c>
+      <c r="F28">
+        <v>-0.001869774955158968</v>
+      </c>
+      <c r="G28">
+        <v>-0.06601461599322131</v>
+      </c>
+      <c r="H28">
+        <v>0.01712253649037029</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.00771335061783741</v>
+        <v>0.006601389054724589</v>
       </c>
       <c r="C29">
-        <v>0.0217001179007499</v>
+        <v>-0.02396123485855959</v>
       </c>
       <c r="D29">
-        <v>0.06501406487587352</v>
+        <v>-0.0799048096089448</v>
       </c>
       <c r="E29">
-        <v>-0.04855562315311314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03315332084989343</v>
+      </c>
+      <c r="F29">
+        <v>-0.004750028873902854</v>
+      </c>
+      <c r="G29">
+        <v>-0.001208537758869906</v>
+      </c>
+      <c r="H29">
+        <v>0.1122407487386385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03859082515708614</v>
+        <v>0.04115115647498008</v>
       </c>
       <c r="C30">
-        <v>0.04054558761725684</v>
+        <v>-0.06098828549394355</v>
       </c>
       <c r="D30">
-        <v>0.1663646396663742</v>
+        <v>-0.1772665970079696</v>
       </c>
       <c r="E30">
-        <v>-0.01958074067489885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.01890653140843115</v>
+      </c>
+      <c r="F30">
+        <v>-0.006160748808725264</v>
+      </c>
+      <c r="G30">
+        <v>0.02508640012265121</v>
+      </c>
+      <c r="H30">
+        <v>0.007417208655708358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06917782900757703</v>
+        <v>0.05607461902289639</v>
       </c>
       <c r="C31">
-        <v>0.05160383765035476</v>
+        <v>-0.07248688279348048</v>
       </c>
       <c r="D31">
-        <v>0.06952543304477117</v>
+        <v>-0.05721374404342029</v>
       </c>
       <c r="E31">
-        <v>-0.04505404053839404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.03275485379684173</v>
+      </c>
+      <c r="F31">
+        <v>-0.0335011998934135</v>
+      </c>
+      <c r="G31">
+        <v>-0.01774440715527264</v>
+      </c>
+      <c r="H31">
+        <v>0.04796921773701426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.007778936214142217</v>
+        <v>0.01219091033006461</v>
       </c>
       <c r="C32">
-        <v>0.01189168227833347</v>
+        <v>-0.01886199720569974</v>
       </c>
       <c r="D32">
-        <v>0.06375306771424172</v>
+        <v>-0.09937191491422309</v>
       </c>
       <c r="E32">
-        <v>-0.09607468151540248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.09048833656002156</v>
+      </c>
+      <c r="F32">
+        <v>-0.01412757129875304</v>
+      </c>
+      <c r="G32">
+        <v>-0.02112989643570172</v>
+      </c>
+      <c r="H32">
+        <v>0.09543721555465391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02571150118913292</v>
+        <v>0.02318713303555965</v>
       </c>
       <c r="C33">
-        <v>0.02610737372547917</v>
+        <v>-0.04335185133886814</v>
       </c>
       <c r="D33">
-        <v>0.1342436923296624</v>
+        <v>-0.1310814776352264</v>
       </c>
       <c r="E33">
-        <v>-0.0661028981186657</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04329006152763978</v>
+      </c>
+      <c r="F33">
+        <v>-0.01529380263656008</v>
+      </c>
+      <c r="G33">
+        <v>0.004981366181591032</v>
+      </c>
+      <c r="H33">
+        <v>0.06882295386970583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03582946272639448</v>
+        <v>0.02680139759750808</v>
       </c>
       <c r="C34">
-        <v>0.06230257543385895</v>
+        <v>-0.06108005572818509</v>
       </c>
       <c r="D34">
-        <v>0.07009773998678279</v>
+        <v>-0.05518109443374447</v>
       </c>
       <c r="E34">
-        <v>-0.01001327878980563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.003959633854578776</v>
+      </c>
+      <c r="F34">
+        <v>0.01094134881659249</v>
+      </c>
+      <c r="G34">
+        <v>0.005049033240507394</v>
+      </c>
+      <c r="H34">
+        <v>0.07770969590564816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005878393929455933</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0007514761109287167</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.00450151320051438</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.000336402714440616</v>
+      </c>
+      <c r="F35">
+        <v>0.0001333541232088279</v>
+      </c>
+      <c r="G35">
+        <v>0.002268268732072559</v>
+      </c>
+      <c r="H35">
+        <v>0.002022808723788727</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02065185790428254</v>
+        <v>0.01830598066772092</v>
       </c>
       <c r="C36">
-        <v>0.003450440436229712</v>
+        <v>-0.01492336265399263</v>
       </c>
       <c r="D36">
-        <v>0.07452757188625103</v>
+        <v>-0.07714664056722227</v>
       </c>
       <c r="E36">
-        <v>-0.0542652534928725</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03465826392111435</v>
+      </c>
+      <c r="F36">
+        <v>0.003020611805678708</v>
+      </c>
+      <c r="G36">
+        <v>-0.006801025422850909</v>
+      </c>
+      <c r="H36">
+        <v>0.05929995187722166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02458215916115821</v>
+        <v>0.01995106079777849</v>
       </c>
       <c r="C38">
-        <v>0.01519236882822462</v>
+        <v>-0.02086204881855382</v>
       </c>
       <c r="D38">
-        <v>0.05219133285882768</v>
+        <v>-0.05782630926967706</v>
       </c>
       <c r="E38">
-        <v>-0.04690477718121182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.03705223925527278</v>
+      </c>
+      <c r="F38">
+        <v>0.00543234817861061</v>
+      </c>
+      <c r="G38">
+        <v>0.03895990464698473</v>
+      </c>
+      <c r="H38">
+        <v>0.03792842911495475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04011700687668163</v>
+        <v>0.03542383855256521</v>
       </c>
       <c r="C39">
-        <v>0.05238697472186638</v>
+        <v>-0.06485263779421653</v>
       </c>
       <c r="D39">
-        <v>0.09002777428572036</v>
+        <v>-0.1035233311734637</v>
       </c>
       <c r="E39">
-        <v>-0.01967054146848543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.005846356640158751</v>
+      </c>
+      <c r="F39">
+        <v>0.02507210284044648</v>
+      </c>
+      <c r="G39">
+        <v>0.008651894504050241</v>
+      </c>
+      <c r="H39">
+        <v>0.08899103017479416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01923164517785792</v>
+        <v>0.01366316374531813</v>
       </c>
       <c r="C40">
-        <v>0.04862120200039367</v>
+        <v>-0.0392754856563125</v>
       </c>
       <c r="D40">
-        <v>0.07893351759772009</v>
+        <v>-0.08474737668078373</v>
       </c>
       <c r="E40">
-        <v>-0.08400227870819212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.06388502936222787</v>
+      </c>
+      <c r="F40">
+        <v>-0.06388965303327222</v>
+      </c>
+      <c r="G40">
+        <v>0.06840288354949084</v>
+      </c>
+      <c r="H40">
+        <v>0.1589390703211642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0252194356176648</v>
+        <v>0.0226482363203881</v>
       </c>
       <c r="C41">
-        <v>-0.00682920758607572</v>
+        <v>-0.008873625353790974</v>
       </c>
       <c r="D41">
-        <v>0.06800220193169754</v>
+        <v>-0.05479176622796617</v>
       </c>
       <c r="E41">
-        <v>-0.07635757039987046</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.05280237864629576</v>
+      </c>
+      <c r="F41">
+        <v>-0.002150279486660803</v>
+      </c>
+      <c r="G41">
+        <v>0.01460320210854785</v>
+      </c>
+      <c r="H41">
+        <v>0.0491242893774707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03109383133826685</v>
+        <v>0.02298377510498867</v>
       </c>
       <c r="C43">
-        <v>0.0043570286724947</v>
+        <v>-0.01860134889330772</v>
       </c>
       <c r="D43">
-        <v>0.1071127979150116</v>
+        <v>-0.08481567822625287</v>
       </c>
       <c r="E43">
-        <v>-0.06489933789052661</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03502973304841689</v>
+      </c>
+      <c r="F43">
+        <v>-0.005269725949348976</v>
+      </c>
+      <c r="G43">
+        <v>0.01577833956909339</v>
+      </c>
+      <c r="H43">
+        <v>0.07046484714700672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0114199994927443</v>
+        <v>0.01696245176018063</v>
       </c>
       <c r="C44">
-        <v>0.04196374878573442</v>
+        <v>-0.04391664273231072</v>
       </c>
       <c r="D44">
-        <v>0.08026035561008953</v>
+        <v>-0.09755278606738865</v>
       </c>
       <c r="E44">
-        <v>-0.07881415799109781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.06870020777144237</v>
+      </c>
+      <c r="F44">
+        <v>-0.006156935880882542</v>
+      </c>
+      <c r="G44">
+        <v>0.006632738670636704</v>
+      </c>
+      <c r="H44">
+        <v>0.07335190745756472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0204957087140079</v>
+        <v>0.01664728830757748</v>
       </c>
       <c r="C46">
-        <v>0.01947295113161583</v>
+        <v>-0.02857811983105591</v>
       </c>
       <c r="D46">
-        <v>0.07760384289107367</v>
+        <v>-0.08882807292298839</v>
       </c>
       <c r="E46">
-        <v>-0.05815123380292397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04011316037380794</v>
+      </c>
+      <c r="F46">
+        <v>0.01669969272168221</v>
+      </c>
+      <c r="G46">
+        <v>-0.009178304107254323</v>
+      </c>
+      <c r="H46">
+        <v>0.1172935515564113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09594688260548483</v>
+        <v>0.08279482283198417</v>
       </c>
       <c r="C47">
-        <v>0.06972291951345838</v>
+        <v>-0.08876378999859745</v>
       </c>
       <c r="D47">
-        <v>0.04543130062045862</v>
+        <v>-0.0345133724217737</v>
       </c>
       <c r="E47">
-        <v>-0.03845401726895641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0367358064397951</v>
+      </c>
+      <c r="F47">
+        <v>-0.02141618465095277</v>
+      </c>
+      <c r="G47">
+        <v>-0.04264550093066603</v>
+      </c>
+      <c r="H47">
+        <v>0.0221147782162088</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01640241284332164</v>
+        <v>0.01632703318793773</v>
       </c>
       <c r="C48">
-        <v>0.01507812326076636</v>
+        <v>-0.02002475235412609</v>
       </c>
       <c r="D48">
-        <v>0.0685039112306382</v>
+        <v>-0.07282484917241128</v>
       </c>
       <c r="E48">
-        <v>-0.06941575473130107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.04962104121269609</v>
+      </c>
+      <c r="F48">
+        <v>0.004624087744386915</v>
+      </c>
+      <c r="G48">
+        <v>-0.004121352381108604</v>
+      </c>
+      <c r="H48">
+        <v>0.06416067648525459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.06995766638921214</v>
+        <v>0.05467722907788674</v>
       </c>
       <c r="C50">
-        <v>0.0607595879072507</v>
+        <v>-0.06691558913394198</v>
       </c>
       <c r="D50">
-        <v>0.06253939574116336</v>
+        <v>-0.056730938722224</v>
       </c>
       <c r="E50">
-        <v>-0.05598241729026771</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.04574647152654227</v>
+      </c>
+      <c r="F50">
+        <v>-0.0408099706439603</v>
+      </c>
+      <c r="G50">
+        <v>0.01389284445891999</v>
+      </c>
+      <c r="H50">
+        <v>0.04885770025062214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.008755832542590099</v>
+        <v>0.008561637038846905</v>
       </c>
       <c r="C51">
-        <v>0.01928058413735958</v>
+        <v>-0.02024438950538345</v>
       </c>
       <c r="D51">
-        <v>0.08139795522498219</v>
+        <v>-0.08770354953051103</v>
       </c>
       <c r="E51">
-        <v>-0.01778137937084514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01374099248281472</v>
+      </c>
+      <c r="F51">
+        <v>0.002000838652188329</v>
+      </c>
+      <c r="G51">
+        <v>0.02186345695117923</v>
+      </c>
+      <c r="H51">
+        <v>0.07791600858589598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08373458628588226</v>
+        <v>0.08629414078797616</v>
       </c>
       <c r="C53">
-        <v>0.09238486255575287</v>
+        <v>-0.1023510980276023</v>
       </c>
       <c r="D53">
-        <v>0.02098009401041325</v>
+        <v>-0.01147713199258038</v>
       </c>
       <c r="E53">
-        <v>-0.09777385574239639</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.1053385229707003</v>
+      </c>
+      <c r="F53">
+        <v>-0.04349953273676455</v>
+      </c>
+      <c r="G53">
+        <v>-0.08946160320249655</v>
+      </c>
+      <c r="H53">
+        <v>0.0108506790168924</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03121823644245682</v>
+        <v>0.02593313371228389</v>
       </c>
       <c r="C54">
-        <v>0.0340636122123697</v>
+        <v>-0.03720917677178805</v>
       </c>
       <c r="D54">
-        <v>0.0883356711358434</v>
+        <v>-0.0856936374625735</v>
       </c>
       <c r="E54">
-        <v>-0.05141720073035434</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.04201602437663578</v>
+      </c>
+      <c r="F54">
+        <v>0.01335884624506896</v>
+      </c>
+      <c r="G54">
+        <v>0.02465762128775085</v>
+      </c>
+      <c r="H54">
+        <v>0.1144341909847462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08971944553962893</v>
+        <v>0.08508650682301527</v>
       </c>
       <c r="C55">
-        <v>0.06310650096503342</v>
+        <v>-0.08084924540805304</v>
       </c>
       <c r="D55">
-        <v>-0.005059359994513874</v>
+        <v>0.008596655628196585</v>
       </c>
       <c r="E55">
-        <v>-0.05531884511419067</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.06004513118149504</v>
+      </c>
+      <c r="F55">
+        <v>-0.04094818902352892</v>
+      </c>
+      <c r="G55">
+        <v>-0.04512345364494743</v>
+      </c>
+      <c r="H55">
+        <v>-0.004798029986494427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1386841059479006</v>
+        <v>0.1291256514925535</v>
       </c>
       <c r="C56">
-        <v>0.1009401398364443</v>
+        <v>-0.1261798776046983</v>
       </c>
       <c r="D56">
-        <v>0.007222976618945548</v>
+        <v>0.008661669037184136</v>
       </c>
       <c r="E56">
-        <v>-0.04842116806042245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.06280852183135041</v>
+      </c>
+      <c r="F56">
+        <v>-0.03180906290324282</v>
+      </c>
+      <c r="G56">
+        <v>-0.04968153534450363</v>
+      </c>
+      <c r="H56">
+        <v>-0.004925173272384974</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.02431615985138521</v>
+        <v>0.02934137413859056</v>
       </c>
       <c r="C58">
-        <v>-0.0254570026312048</v>
+        <v>-0.01842834712213075</v>
       </c>
       <c r="D58">
-        <v>0.3662110442508283</v>
+        <v>-0.3875173348861078</v>
       </c>
       <c r="E58">
-        <v>-0.2279890941705293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.1989124348475604</v>
+      </c>
+      <c r="F58">
+        <v>-0.1417626633044352</v>
+      </c>
+      <c r="G58">
+        <v>0.2468122873933934</v>
+      </c>
+      <c r="H58">
+        <v>-0.4252310716118697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1403118004977229</v>
+        <v>0.1766638575272963</v>
       </c>
       <c r="C59">
-        <v>-0.1913401008248509</v>
+        <v>0.1691239691865626</v>
       </c>
       <c r="D59">
-        <v>0.02941050390222665</v>
+        <v>-0.05257653749981192</v>
       </c>
       <c r="E59">
-        <v>-0.02903520233313461</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01820420125377226</v>
+      </c>
+      <c r="F59">
+        <v>0.04329357569431304</v>
+      </c>
+      <c r="G59">
+        <v>-0.0009272729338640788</v>
+      </c>
+      <c r="H59">
+        <v>-0.02377985459677023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2497568772587754</v>
+        <v>0.2268354076381616</v>
       </c>
       <c r="C60">
-        <v>0.0647562900777639</v>
+        <v>-0.103106434738805</v>
       </c>
       <c r="D60">
-        <v>0.1597736391949436</v>
+        <v>-0.1092305200462152</v>
       </c>
       <c r="E60">
-        <v>0.3328355430849631</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.3688169065424171</v>
+      </c>
+      <c r="F60">
+        <v>-0.02587811065686615</v>
+      </c>
+      <c r="G60">
+        <v>-0.04240406162154203</v>
+      </c>
+      <c r="H60">
+        <v>-0.1142416961692279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04714948255366844</v>
+        <v>0.03991442377219898</v>
       </c>
       <c r="C61">
-        <v>0.05497833980002822</v>
+        <v>-0.06213847538942138</v>
       </c>
       <c r="D61">
-        <v>0.0966921754462863</v>
+        <v>-0.09150051308746128</v>
       </c>
       <c r="E61">
-        <v>-0.0250253117198699</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.002675052101008256</v>
+      </c>
+      <c r="F61">
+        <v>0.01662680519609042</v>
+      </c>
+      <c r="G61">
+        <v>-0.004766666289721766</v>
+      </c>
+      <c r="H61">
+        <v>0.08039254818545258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01662729512749395</v>
+        <v>0.0136680490273627</v>
       </c>
       <c r="C63">
-        <v>0.02421901696213515</v>
+        <v>-0.0340342740931556</v>
       </c>
       <c r="D63">
-        <v>0.06380071783163978</v>
+        <v>-0.0681322425041634</v>
       </c>
       <c r="E63">
-        <v>-0.04209349605298865</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.03089177576268722</v>
+      </c>
+      <c r="F63">
+        <v>-0.01746627824819654</v>
+      </c>
+      <c r="G63">
+        <v>0.005418795523291274</v>
+      </c>
+      <c r="H63">
+        <v>0.05329802178577787</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05616880387453575</v>
+        <v>0.05369264816863284</v>
       </c>
       <c r="C64">
-        <v>0.06502151847582309</v>
+        <v>-0.08167352476023439</v>
       </c>
       <c r="D64">
-        <v>0.0577060263038054</v>
+        <v>-0.05345890860457317</v>
       </c>
       <c r="E64">
-        <v>-0.04092521025727131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02646115293545537</v>
+      </c>
+      <c r="F64">
+        <v>0.01549633795188794</v>
+      </c>
+      <c r="G64">
+        <v>-0.05173690108173027</v>
+      </c>
+      <c r="H64">
+        <v>0.06596359320845849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05279695429494608</v>
+        <v>0.04835382702427161</v>
       </c>
       <c r="C65">
-        <v>0.002296356087754418</v>
+        <v>-0.02520897149037327</v>
       </c>
       <c r="D65">
-        <v>0.1099641394972496</v>
+        <v>-0.1147864802825067</v>
       </c>
       <c r="E65">
-        <v>-0.02819800730776292</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.002042131235806693</v>
+      </c>
+      <c r="F65">
+        <v>-0.0139980049403803</v>
+      </c>
+      <c r="G65">
+        <v>0.02874374852995258</v>
+      </c>
+      <c r="H65">
+        <v>-0.02718917108453656</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04611721964177739</v>
+        <v>0.03992968952485552</v>
       </c>
       <c r="C66">
-        <v>0.05828535905752283</v>
+        <v>-0.07528468454452765</v>
       </c>
       <c r="D66">
-        <v>0.1110242429371006</v>
+        <v>-0.128719323424666</v>
       </c>
       <c r="E66">
-        <v>-0.02383775336700407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01230289054424895</v>
+      </c>
+      <c r="F66">
+        <v>0.01092748454567611</v>
+      </c>
+      <c r="G66">
+        <v>0.01773997035115117</v>
+      </c>
+      <c r="H66">
+        <v>0.05603556102084237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04299597832085807</v>
+        <v>0.03663493601182002</v>
       </c>
       <c r="C67">
-        <v>0.02164278885435423</v>
+        <v>-0.02663006198649559</v>
       </c>
       <c r="D67">
-        <v>0.02162905261572558</v>
+        <v>-0.0186978054490783</v>
       </c>
       <c r="E67">
-        <v>-0.02918369858007887</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01703255111331323</v>
+      </c>
+      <c r="F67">
+        <v>0.0007781761107559424</v>
+      </c>
+      <c r="G67">
+        <v>0.03610722809701039</v>
+      </c>
+      <c r="H67">
+        <v>0.03700669228135501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.16238347200476</v>
+        <v>0.1956603277006222</v>
       </c>
       <c r="C68">
-        <v>-0.2462312060870543</v>
+        <v>0.1999730068922377</v>
       </c>
       <c r="D68">
-        <v>-0.01870728008795434</v>
+        <v>-0.01249649215963586</v>
       </c>
       <c r="E68">
-        <v>-0.04738893143613435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.05468595392207051</v>
+      </c>
+      <c r="F68">
+        <v>-0.02733192232075141</v>
+      </c>
+      <c r="G68">
+        <v>0.009936057130849392</v>
+      </c>
+      <c r="H68">
+        <v>-0.001944646053710548</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08689841212301215</v>
+        <v>0.07531296952324378</v>
       </c>
       <c r="C69">
-        <v>0.08351692722916858</v>
+        <v>-0.09690055482768492</v>
       </c>
       <c r="D69">
-        <v>0.0608981936943354</v>
+        <v>-0.04617656216876354</v>
       </c>
       <c r="E69">
-        <v>-0.02992536974644334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02606528149402402</v>
+      </c>
+      <c r="F69">
+        <v>-0.004560258170800687</v>
+      </c>
+      <c r="G69">
+        <v>-0.03126587511525355</v>
+      </c>
+      <c r="H69">
+        <v>0.03749120363003581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1414008206063063</v>
+        <v>0.1817096981967926</v>
       </c>
       <c r="C71">
-        <v>-0.2423221367418232</v>
+        <v>0.2113878658335026</v>
       </c>
       <c r="D71">
-        <v>0.01934138198778226</v>
+        <v>-0.03654694313863582</v>
       </c>
       <c r="E71">
-        <v>-0.0537453016910874</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.05452503843164</v>
+      </c>
+      <c r="F71">
+        <v>-0.03142705765586704</v>
+      </c>
+      <c r="G71">
+        <v>-0.01906886771428347</v>
+      </c>
+      <c r="H71">
+        <v>0.02440973033850975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09766369734723744</v>
+        <v>0.09864822418093172</v>
       </c>
       <c r="C72">
-        <v>0.03980922511807645</v>
+        <v>-0.06957670910820456</v>
       </c>
       <c r="D72">
-        <v>0.08876123779096491</v>
+        <v>-0.09428112238527123</v>
       </c>
       <c r="E72">
-        <v>0.01770681128136682</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0349075095560025</v>
+      </c>
+      <c r="F72">
+        <v>-0.03743586378464065</v>
+      </c>
+      <c r="G72">
+        <v>-0.03121190105230486</v>
+      </c>
+      <c r="H72">
+        <v>0.04227962555613094</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2723217102760523</v>
+        <v>0.2446211167122349</v>
       </c>
       <c r="C73">
-        <v>0.005558094619565174</v>
+        <v>-0.08181024995622714</v>
       </c>
       <c r="D73">
-        <v>0.2704344043017843</v>
+        <v>-0.1761360954735496</v>
       </c>
       <c r="E73">
-        <v>0.6584059245818655</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.6669210207741313</v>
+      </c>
+      <c r="F73">
+        <v>-0.0240976479042562</v>
+      </c>
+      <c r="G73">
+        <v>-0.01364225692918462</v>
+      </c>
+      <c r="H73">
+        <v>-0.1449543388605036</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1072589517075759</v>
+        <v>0.09921902942294027</v>
       </c>
       <c r="C74">
-        <v>0.07492093781505792</v>
+        <v>-0.09154246593731256</v>
       </c>
       <c r="D74">
-        <v>0.01679860529740011</v>
+        <v>0.00316403939207714</v>
       </c>
       <c r="E74">
-        <v>-0.08418058932987184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.07914319726602863</v>
+      </c>
+      <c r="F74">
+        <v>-0.05755206306543729</v>
+      </c>
+      <c r="G74">
+        <v>-0.06396022919304517</v>
+      </c>
+      <c r="H74">
+        <v>-0.02565209483325782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2484769476611433</v>
+        <v>0.2290531593745867</v>
       </c>
       <c r="C75">
-        <v>0.118527998398398</v>
+        <v>-0.1660034952657899</v>
       </c>
       <c r="D75">
-        <v>-0.06647836311990259</v>
+        <v>0.0939173426769007</v>
       </c>
       <c r="E75">
-        <v>-0.1049356094067526</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1027958448549728</v>
+      </c>
+      <c r="F75">
+        <v>-0.004412237814047676</v>
+      </c>
+      <c r="G75">
+        <v>-0.06171114744817948</v>
+      </c>
+      <c r="H75">
+        <v>-0.1094497909710159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1407143973110586</v>
+        <v>0.1276541874134821</v>
       </c>
       <c r="C76">
-        <v>0.08548579025606287</v>
+        <v>-0.1138124236283031</v>
       </c>
       <c r="D76">
-        <v>0.001455660107394169</v>
+        <v>0.01363960498128318</v>
       </c>
       <c r="E76">
-        <v>-0.1381288920670976</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.1152766989331474</v>
+      </c>
+      <c r="F76">
+        <v>-0.02030477398324128</v>
+      </c>
+      <c r="G76">
+        <v>-0.04778903143788736</v>
+      </c>
+      <c r="H76">
+        <v>0.005314443680932156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06696307555556978</v>
+        <v>0.0610196070413379</v>
       </c>
       <c r="C77">
-        <v>0.05975654896712531</v>
+        <v>-0.07197633641165611</v>
       </c>
       <c r="D77">
-        <v>0.04290051335673584</v>
+        <v>-0.1267759126833374</v>
       </c>
       <c r="E77">
-        <v>-0.1716801956384344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.2051004776801485</v>
+      </c>
+      <c r="F77">
+        <v>0.2519473496186262</v>
+      </c>
+      <c r="G77">
+        <v>0.1978280653169026</v>
+      </c>
+      <c r="H77">
+        <v>-0.3989862854377604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04411233548469094</v>
+        <v>0.04248614189962831</v>
       </c>
       <c r="C78">
-        <v>0.05528799021106112</v>
+        <v>-0.06720119294699461</v>
       </c>
       <c r="D78">
-        <v>0.1163940144616091</v>
+        <v>-0.1299777912229274</v>
       </c>
       <c r="E78">
-        <v>0.002679330171145473</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01432458375810692</v>
+      </c>
+      <c r="F78">
+        <v>-0.008305933221217775</v>
+      </c>
+      <c r="G78">
+        <v>-0.01439309609924217</v>
+      </c>
+      <c r="H78">
+        <v>0.02588650960308421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.0004530302699606128</v>
+        <v>0.04452320613553326</v>
       </c>
       <c r="C79">
-        <v>0.06478982323079061</v>
+        <v>-0.09045328813147138</v>
       </c>
       <c r="D79">
-        <v>0.008666009056904504</v>
+        <v>0.02584271163358776</v>
       </c>
       <c r="E79">
-        <v>-0.09334123190264064</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1900397205990783</v>
+      </c>
+      <c r="F79">
+        <v>-0.1231669856394915</v>
+      </c>
+      <c r="G79">
+        <v>-0.7279544634959819</v>
+      </c>
+      <c r="H79">
+        <v>-0.3342315981742128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03339941211014989</v>
+        <v>0.02604791418996425</v>
       </c>
       <c r="C80">
-        <v>0.0286121318265129</v>
+        <v>-0.04396478901897342</v>
       </c>
       <c r="D80">
-        <v>0.0272834212044374</v>
+        <v>-0.03361706698986087</v>
       </c>
       <c r="E80">
-        <v>-0.04825797363911973</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02126007956155862</v>
+      </c>
+      <c r="F80">
+        <v>0.03322168903042917</v>
+      </c>
+      <c r="G80">
+        <v>0.05135681965828616</v>
+      </c>
+      <c r="H80">
+        <v>0.02084654133084468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1434981985025535</v>
+        <v>0.127583711953192</v>
       </c>
       <c r="C81">
-        <v>0.09325389171667343</v>
+        <v>-0.1163081853868712</v>
       </c>
       <c r="D81">
-        <v>-0.04754490327211719</v>
+        <v>0.06543075350056986</v>
       </c>
       <c r="E81">
-        <v>-0.1249634152007596</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.1177949252577867</v>
+      </c>
+      <c r="F81">
+        <v>-0.02146104444453989</v>
+      </c>
+      <c r="G81">
+        <v>-0.05051659302398299</v>
+      </c>
+      <c r="H81">
+        <v>-0.01146484741560728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.304912938389461</v>
+        <v>0.254152723993635</v>
       </c>
       <c r="C82">
-        <v>0.2681641661073835</v>
+        <v>-0.2622499523874844</v>
       </c>
       <c r="D82">
-        <v>-0.2290214151754423</v>
+        <v>0.2293414817290265</v>
       </c>
       <c r="E82">
-        <v>0.06234477966679502</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01705061928564329</v>
+      </c>
+      <c r="F82">
+        <v>-0.04612744728258519</v>
+      </c>
+      <c r="G82">
+        <v>-0.06963224444404849</v>
+      </c>
+      <c r="H82">
+        <v>0.4227154822354921</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03034515246888255</v>
+        <v>0.02274072114851148</v>
       </c>
       <c r="C83">
-        <v>0.04663295820848259</v>
+        <v>-0.05292907546907874</v>
       </c>
       <c r="D83">
-        <v>0.04592053921858193</v>
+        <v>-0.0508892997768955</v>
       </c>
       <c r="E83">
-        <v>-0.01170235996748356</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0124309601993395</v>
+      </c>
+      <c r="F83">
+        <v>0.0238022076895919</v>
+      </c>
+      <c r="G83">
+        <v>0.01851447332869555</v>
+      </c>
+      <c r="H83">
+        <v>0.0193574514119883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002290344926685113</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004980076893696297</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>-0.01695753294690578</v>
       </c>
       <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01552495288480383</v>
+      </c>
+      <c r="F84">
+        <v>-0.007898426004376688</v>
+      </c>
+      <c r="G84">
+        <v>0.007397690503704383</v>
+      </c>
+      <c r="H84">
+        <v>0.00253523470215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1819879541157458</v>
+        <v>0.1597513463426446</v>
       </c>
       <c r="C85">
-        <v>0.09417158752846742</v>
+        <v>-0.1340362391079868</v>
       </c>
       <c r="D85">
-        <v>-0.03446474442490554</v>
+        <v>0.06594362480222202</v>
       </c>
       <c r="E85">
-        <v>-0.03575590443599162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0500338506207785</v>
+      </c>
+      <c r="F85">
+        <v>-0.0352246261228257</v>
+      </c>
+      <c r="G85">
+        <v>-0.09651200682067471</v>
+      </c>
+      <c r="H85">
+        <v>-0.08046957876283821</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01787259637312648</v>
+        <v>0.01941310155117212</v>
       </c>
       <c r="C86">
-        <v>0.02065183551658231</v>
+        <v>-0.02281352250009728</v>
       </c>
       <c r="D86">
-        <v>0.1425940318946137</v>
+        <v>-0.1285360574265318</v>
       </c>
       <c r="E86">
-        <v>-0.0116138048413196</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01014301304342255</v>
+      </c>
+      <c r="F86">
+        <v>0.01586083088660303</v>
+      </c>
+      <c r="G86">
+        <v>0.004560004546353217</v>
+      </c>
+      <c r="H86">
+        <v>0.05544166371764714</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02718915252677606</v>
+        <v>0.03361121727696885</v>
       </c>
       <c r="C87">
-        <v>0.003513712863691727</v>
+        <v>-0.02504836156389497</v>
       </c>
       <c r="D87">
-        <v>0.09920823886368524</v>
+        <v>-0.1336674709568691</v>
       </c>
       <c r="E87">
-        <v>-0.09782113891623355</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08237927142928653</v>
+      </c>
+      <c r="F87">
+        <v>0.01259239181414965</v>
+      </c>
+      <c r="G87">
+        <v>0.01911645001029679</v>
+      </c>
+      <c r="H87">
+        <v>0.03223928687463527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07896052739011268</v>
+        <v>0.0693054295990716</v>
       </c>
       <c r="C88">
-        <v>0.04200151470122045</v>
+        <v>-0.05747958288055922</v>
       </c>
       <c r="D88">
-        <v>0.03423582668130864</v>
+        <v>-0.01607869484793088</v>
       </c>
       <c r="E88">
-        <v>-0.04423001261260828</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01865452171242989</v>
+      </c>
+      <c r="F88">
+        <v>-0.005396338813003042</v>
+      </c>
+      <c r="G88">
+        <v>-0.0009243121127907389</v>
+      </c>
+      <c r="H88">
+        <v>0.04269522829383186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2027328110172864</v>
+        <v>0.2770514531820535</v>
       </c>
       <c r="C89">
-        <v>-0.3785476082533763</v>
+        <v>0.3555117494335012</v>
       </c>
       <c r="D89">
-        <v>-0.03119687032229243</v>
+        <v>0.004739843526825605</v>
       </c>
       <c r="E89">
-        <v>-0.05788407857461354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04745732277755646</v>
+      </c>
+      <c r="F89">
+        <v>0.04720441891340162</v>
+      </c>
+      <c r="G89">
+        <v>-0.03992822022562352</v>
+      </c>
+      <c r="H89">
+        <v>0.07923818501252075</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1994878676807044</v>
+        <v>0.2409997469123451</v>
       </c>
       <c r="C90">
-        <v>-0.2973175501069131</v>
+        <v>0.2551310999909914</v>
       </c>
       <c r="D90">
-        <v>-0.02825014281063784</v>
+        <v>-0.01442942127674588</v>
       </c>
       <c r="E90">
-        <v>-0.0536528762185624</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04509924957486068</v>
+      </c>
+      <c r="F90">
+        <v>-0.01239307256094411</v>
+      </c>
+      <c r="G90">
+        <v>0.05086725362897233</v>
+      </c>
+      <c r="H90">
+        <v>0.04060725068179235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1830521827490063</v>
+        <v>0.1604417057253322</v>
       </c>
       <c r="C91">
-        <v>0.1396441593627827</v>
+        <v>-0.1571403972750993</v>
       </c>
       <c r="D91">
-        <v>-0.06090713532480647</v>
+        <v>0.08438098067943457</v>
       </c>
       <c r="E91">
-        <v>-0.1017423321969408</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1077957858936103</v>
+      </c>
+      <c r="F91">
+        <v>-0.02533707833610666</v>
+      </c>
+      <c r="G91">
+        <v>-0.09650236291286535</v>
+      </c>
+      <c r="H91">
+        <v>-0.08558592351548439</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1714028541441885</v>
+        <v>0.2203182760526272</v>
       </c>
       <c r="C92">
-        <v>-0.2876277023803835</v>
+        <v>0.2713314890494949</v>
       </c>
       <c r="D92">
-        <v>0.008150028077788814</v>
+        <v>-0.02888010335102327</v>
       </c>
       <c r="E92">
-        <v>-0.1154374821179254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.08996719639455747</v>
+      </c>
+      <c r="F92">
+        <v>0.01641513845433932</v>
+      </c>
+      <c r="G92">
+        <v>0.01252575133796507</v>
+      </c>
+      <c r="H92">
+        <v>0.03965452785270771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2291195051515358</v>
+        <v>0.2668120933000087</v>
       </c>
       <c r="C93">
-        <v>-0.3180316937489923</v>
+        <v>0.2694828895266153</v>
       </c>
       <c r="D93">
-        <v>-0.002121478364290785</v>
+        <v>0.002217182871251203</v>
       </c>
       <c r="E93">
-        <v>-0.04277755716344617</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01859741359181249</v>
+      </c>
+      <c r="F93">
+        <v>-0.02353541749532372</v>
+      </c>
+      <c r="G93">
+        <v>-0.002746883754445861</v>
+      </c>
+      <c r="H93">
+        <v>-0.001592543715753217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3926967925030309</v>
+        <v>0.337586424580931</v>
       </c>
       <c r="C94">
-        <v>0.2173036849144466</v>
+        <v>-0.2634252030507137</v>
       </c>
       <c r="D94">
-        <v>-0.4642641428294975</v>
+        <v>0.43271462987429</v>
       </c>
       <c r="E94">
-        <v>-0.07622756273171565</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.09346963177612803</v>
+      </c>
+      <c r="F94">
+        <v>0.01883478121135494</v>
+      </c>
+      <c r="G94">
+        <v>0.4874611989718879</v>
+      </c>
+      <c r="H94">
+        <v>-0.1571655086999893</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07405016080106668</v>
+        <v>0.06568252533141537</v>
       </c>
       <c r="C95">
-        <v>0.0704928499707954</v>
+        <v>-0.06620993420966588</v>
       </c>
       <c r="D95">
-        <v>0.1056827747669001</v>
+        <v>-0.0778797565852942</v>
       </c>
       <c r="E95">
-        <v>-0.1324415044579155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.004289546878825245</v>
+      </c>
+      <c r="F95">
+        <v>0.9179329327363489</v>
+      </c>
+      <c r="G95">
+        <v>-0.1319536327577685</v>
+      </c>
+      <c r="H95">
+        <v>0.008213284630849159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +3190,19 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +3216,45 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1754573104098956</v>
+        <v>0.1625476730915768</v>
       </c>
       <c r="C98">
-        <v>0.02309262430767623</v>
+        <v>-0.06448516653754259</v>
       </c>
       <c r="D98">
-        <v>0.1567405421574102</v>
+        <v>-0.1311232220279792</v>
       </c>
       <c r="E98">
-        <v>0.2734733752473659</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.3191741478962984</v>
+      </c>
+      <c r="F98">
+        <v>-0.05173616512855625</v>
+      </c>
+      <c r="G98">
+        <v>-0.05042122629455193</v>
+      </c>
+      <c r="H98">
+        <v>-0.05057335984553304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007618565867970417</v>
+        <v>0.006871834819836752</v>
       </c>
       <c r="C101">
-        <v>0.02145398134233945</v>
+        <v>-0.02318399003964027</v>
       </c>
       <c r="D101">
-        <v>0.06572185522809908</v>
+        <v>-0.08020006947868101</v>
       </c>
       <c r="E101">
-        <v>-0.04942942991836213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03399961740163103</v>
+      </c>
+      <c r="F101">
+        <v>-0.003905860242471053</v>
+      </c>
+      <c r="G101">
+        <v>-0.002077830327616962</v>
+      </c>
+      <c r="H101">
+        <v>0.1125400126542201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1257522338017976</v>
+        <v>0.1075482863234744</v>
       </c>
       <c r="C102">
-        <v>0.1135368985813895</v>
+        <v>-0.1183997271602964</v>
       </c>
       <c r="D102">
-        <v>-0.03606844880079695</v>
+        <v>0.05456918938402951</v>
       </c>
       <c r="E102">
-        <v>-0.03935138850886685</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03343788842882207</v>
+      </c>
+      <c r="F102">
+        <v>0.02253620442475797</v>
+      </c>
+      <c r="G102">
+        <v>-0.03403632352155943</v>
+      </c>
+      <c r="H102">
+        <v>0.03004360154824188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
